--- a/homework5.xlsx
+++ b/homework5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Я\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Я\Documents\GitHub\Homeworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,6 +15,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Сущность</t>
   </si>
@@ -98,19 +99,22 @@
     <t>00408d28</t>
   </si>
   <si>
-    <t>007129b8</t>
-  </si>
-  <si>
-    <t>00712b78</t>
-  </si>
-  <si>
-    <t>Вывод: рядом находятся одинаковые виды сущностей, а также глобальные переменные и функции</t>
-  </si>
-  <si>
     <t>Пользовательская функция func2</t>
   </si>
   <si>
     <t>00401487</t>
+  </si>
+  <si>
+    <t>00d129b8</t>
+  </si>
+  <si>
+    <t>00d12b88</t>
+  </si>
+  <si>
+    <t>Вывод: рядом находятся одинаковые виды сущностей, а также глобальные переменные и адреса функций.</t>
+  </si>
+  <si>
+    <t>Наблюдаемое поведение не совпадает с теорией, так как адреса функций должны находиться рядом с локальными переменными</t>
   </si>
 </sst>
 </file>
@@ -433,7 +437,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,10 +520,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -543,7 +547,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -551,12 +555,17 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/homework5.xlsx
+++ b/homework5.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -114,7 +113,7 @@
     <t>Вывод: рядом находятся одинаковые виды сущностей, а также глобальные переменные и адреса функций.</t>
   </si>
   <si>
-    <t>Наблюдаемое поведение не совпадает с теорией, так как адреса функций должны находиться рядом с локальными переменными</t>
+    <t>Наблюдаемое поведение совпадает с теорией</t>
   </si>
 </sst>
 </file>
@@ -437,7 +436,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
